--- a/outputs-HGR-r202-archive/g__Veillonella_A.xlsx
+++ b/outputs-HGR-r202-archive/g__Veillonella_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,49 +532,49 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5920.fa</t>
+          <t>even_MAG-GUT7546.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8380012606025873</v>
+        <v>0.0001435225984490645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1188965836655437</v>
+        <v>0.9954859568379653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04310215573186899</v>
+        <v>0.004370520563585662</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8380012606025873</v>
+        <v>0.9954859568379653</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s__Veillonella_A magna</t>
+          <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__Veillonella_A magna</t>
+          <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7546.fa</t>
+          <t>even_MAG-GUT9316.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001435225984490645</v>
+        <v>0.0365261193726673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9954859568379653</v>
+        <v>0.9532164705001364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004370520563585662</v>
+        <v>0.01025741012719634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9954859568379653</v>
+        <v>0.9532164705001364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,20 +590,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9303.fa</t>
+          <t>even_MAG-GUT9364.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008746479449327179</v>
+        <v>0.02386493538316952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.98834744794582</v>
+        <v>0.9707719275526734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002906072604852856</v>
+        <v>0.005363137064157151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98834744794582</v>
+        <v>0.9707719275526734</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9316.fa</t>
+          <t>even_MAG-GUT9376.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0365261193726673</v>
+        <v>0.009311839867438339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9532164705001364</v>
+        <v>0.9858972268397291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01025741012719634</v>
+        <v>0.004790933292832499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9532164705001364</v>
+        <v>0.9858972268397291</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -640,64 +640,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9364.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.02386493538316952</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9707719275526734</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.005363137064157151</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9707719275526734</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9376.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.009311839867438339</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9858972268397291</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.004790933292832499</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9858972268397291</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>s__Veillonella_A sp000431435</t>
         </is>
